--- a/Entrevista_pesquisa/Pesquisa sobre acessibilidade  de leitores de livros digitais (respostas).xlsx
+++ b/Entrevista_pesquisa/Pesquisa sobre acessibilidade  de leitores de livros digitais (respostas).xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\LEIAReader\Entrevista_pesquisa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respostas ao formulário 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contar dispositivo" sheetId="2" r:id="rId2"/>
+    <sheet name="Contar aplicativos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="270">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -809,24 +819,57 @@
   </si>
   <si>
     <t xml:space="preserve">Leitura mais fluida do assistente </t>
+  </si>
+  <si>
+    <t>Computador</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Kobo</t>
+  </si>
+  <si>
+    <t>Ereader</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -834,43 +877,55 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1060,26 +1115,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="19" width="21.57"/>
+    <col min="1" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,12 +1185,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44152.37607295139</v>
+        <v>44152.376072951389</v>
       </c>
       <c r="B2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1152,12 +1217,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44152.388873379634</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
@@ -1183,7 +1248,7 @@
       <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1193,12 +1258,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44152.390382673606</v>
       </c>
       <c r="B4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -1222,12 +1287,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44152.40407711806</v>
+        <v>44152.404077118059</v>
       </c>
       <c r="B5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1251,12 +1316,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44152.44683584491</v>
+        <v>44152.446835844908</v>
       </c>
       <c r="B6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
@@ -1282,7 +1347,7 @@
       <c r="J6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1292,12 +1357,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44152.447179270835</v>
       </c>
       <c r="B7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1323,19 +1388,19 @@
       <c r="J7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44152.45279127314</v>
+        <v>44152.452791273143</v>
       </c>
       <c r="B8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1362,12 +1427,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44152.45430065972</v>
+        <v>44152.454300659723</v>
       </c>
       <c r="B9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>59</v>
@@ -1393,7 +1458,7 @@
       <c r="J9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="9" t="s">
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1403,12 +1468,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44152.46528434027</v>
+        <v>44152.465284340273</v>
       </c>
       <c r="B10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -1438,12 +1503,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44152.48323650463</v>
+        <v>44152.483236504631</v>
       </c>
       <c r="B11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1467,12 +1532,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44152.49118243056</v>
       </c>
       <c r="B12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -1505,12 +1570,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44152.49229825231</v>
+        <v>44152.492298252313</v>
       </c>
       <c r="B13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1543,12 +1608,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44152.4940519213</v>
+        <v>44152.494051921298</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1569,12 +1634,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44152.509195046296</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1592,12 +1657,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44152.52943321759</v>
+        <v>44152.529433217591</v>
       </c>
       <c r="B16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -1618,12 +1683,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44152.56145907407</v>
+        <v>44152.561459074073</v>
       </c>
       <c r="B17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1649,19 +1714,19 @@
       <c r="J17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44152.56566922454</v>
+        <v>44152.565669224539</v>
       </c>
       <c r="B18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1691,12 +1756,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44152.57529046296</v>
+        <v>44152.575290462963</v>
       </c>
       <c r="B19" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>13</v>
@@ -1714,12 +1779,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44152.58971292824</v>
+        <v>44152.589712928238</v>
       </c>
       <c r="B20" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1755,12 +1820,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44152.5906252662</v>
+        <v>44152.590625266203</v>
       </c>
       <c r="B21" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>13</v>
@@ -1781,12 +1846,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44152.60181202546</v>
+        <v>44152.601812025459</v>
       </c>
       <c r="B22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>13</v>
@@ -1810,12 +1875,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44152.605500844904</v>
       </c>
       <c r="B23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>13</v>
@@ -1842,12 +1907,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44152.62022002315</v>
+        <v>44152.620220023149</v>
       </c>
       <c r="B24" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>13</v>
@@ -1874,12 +1939,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44152.62242965278</v>
       </c>
       <c r="B25" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>13</v>
@@ -1900,12 +1965,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44152.65997807871</v>
+        <v>44152.659978078707</v>
       </c>
       <c r="B26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
@@ -1929,12 +1994,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44152.7067178125</v>
       </c>
       <c r="B27" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>141</v>
@@ -1967,12 +2032,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44152.779679768515</v>
       </c>
       <c r="B28" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>13</v>
@@ -1999,12 +2064,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>44152.85568094907</v>
+        <v>44152.855680949069</v>
       </c>
       <c r="B29" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>13</v>
@@ -2028,12 +2093,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44152.896889791664</v>
       </c>
       <c r="B30" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>13</v>
@@ -2060,12 +2125,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44152.89750688657</v>
+        <v>44152.897506886569</v>
       </c>
       <c r="B31" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
@@ -2089,12 +2154,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44152.90194672454</v>
+        <v>44152.901946724538</v>
       </c>
       <c r="B32" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
@@ -2118,12 +2183,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44152.9021187037</v>
       </c>
       <c r="B33" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -2156,12 +2221,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44152.90740697917</v>
+        <v>44152.907406979168</v>
       </c>
       <c r="B34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -2185,12 +2250,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44152.924098449075</v>
       </c>
       <c r="B35" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
@@ -2208,12 +2273,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>44152.92838385417</v>
+        <v>44152.928383854167</v>
       </c>
       <c r="B36" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>21</v>
@@ -2246,12 +2311,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44152.94060277777</v>
+        <v>44152.940602777773</v>
       </c>
       <c r="B37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>13</v>
@@ -2275,12 +2340,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44152.970918182866</v>
       </c>
       <c r="B38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>13</v>
@@ -2304,12 +2369,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44153.000787013894</v>
       </c>
       <c r="B39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
@@ -2339,12 +2404,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44153.03942741898</v>
+        <v>44153.039427418982</v>
       </c>
       <c r="B40" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>13</v>
@@ -2368,12 +2433,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44153.15306236111</v>
+        <v>44153.153062361111</v>
       </c>
       <c r="B41" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>21</v>
@@ -2399,19 +2464,19 @@
       <c r="J41" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="9" t="s">
         <v>191</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44153.263516377316</v>
       </c>
       <c r="B42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>13</v>
@@ -2429,12 +2494,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44153.31399736111</v>
+        <v>44153.313997361111</v>
       </c>
       <c r="B43" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
@@ -2452,12 +2517,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44153.359579502314</v>
       </c>
       <c r="B44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>141</v>
@@ -2475,12 +2540,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44153.415638923616</v>
       </c>
       <c r="B45" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>21</v>
@@ -2516,12 +2581,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44153.47115175926</v>
+        <v>44153.471151759259</v>
       </c>
       <c r="B46" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>13</v>
@@ -2539,12 +2604,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44153.52891180555</v>
+        <v>44153.528911805552</v>
       </c>
       <c r="B47" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>21</v>
@@ -2570,19 +2635,19 @@
       <c r="J47" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="9" t="s">
         <v>210</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44153.71426961805</v>
+        <v>44153.714269618053</v>
       </c>
       <c r="B48" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>13</v>
@@ -2609,12 +2674,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44153.804096064814</v>
       </c>
       <c r="B49" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>21</v>
@@ -2647,12 +2712,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44153.80840212963</v>
+        <v>44153.808402129631</v>
       </c>
       <c r="B50" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>13</v>
@@ -2673,12 +2738,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44153.820357627315</v>
       </c>
       <c r="B51" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>13</v>
@@ -2705,12 +2770,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44154.4493200463</v>
+        <v>44154.449320046297</v>
       </c>
       <c r="B52" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>13</v>
@@ -2728,12 +2793,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44154.535948275465</v>
       </c>
       <c r="B53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>13</v>
@@ -2756,19 +2821,19 @@
       <c r="J53" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="9" t="s">
         <v>234</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>44155.57448127314</v>
+        <v>44155.574481273143</v>
       </c>
       <c r="B54" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>13</v>
@@ -2792,12 +2857,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>44157.87410917824</v>
+        <v>44157.874109178243</v>
       </c>
       <c r="B55" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>21</v>
@@ -2823,7 +2888,7 @@
       <c r="J55" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="9" t="s">
         <v>241</v>
       </c>
       <c r="L55" s="4" t="s">
@@ -2833,12 +2898,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44159.646647870366</v>
       </c>
       <c r="B56" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>13</v>
@@ -2868,12 +2933,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44159.80875225694</v>
       </c>
       <c r="B57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>21</v>
@@ -2909,12 +2974,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>44160.982404375</v>
+        <v>44160.982404374998</v>
       </c>
       <c r="B58" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>13</v>
@@ -2944,12 +3009,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>44162.70752802084</v>
+        <v>44162.707528020837</v>
       </c>
       <c r="B59" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>13</v>
@@ -2972,7 +3037,7 @@
       <c r="J59" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="9" t="s">
         <v>263</v>
       </c>
       <c r="L59" s="4" t="s">
@@ -2982,7 +3047,6726 @@
         <v>265</v>
       </c>
     </row>
+    <row r="121" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F121" s="4"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH61"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" customWidth="1"/>
+    <col min="24" max="25" width="3.85546875" customWidth="1"/>
+    <col min="28" max="28" width="5.42578125" customWidth="1"/>
+    <col min="29" max="29" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="7">
+        <f>COUNTIF(D3:D60,"&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="7">
+        <f>COUNTIF(I3:I60,"&gt;0")</f>
+        <v>47</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="7">
+        <f>COUNTIF(N3:N60,"&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q1" s="7">
+        <f>COUNTIF(S3:S60,"&gt;0")</f>
+        <v>35</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="7">
+        <f>COUNTIF(X3:X60,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA1" s="7">
+        <f>COUNTIF(AC3:AC60,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF1" s="7">
+        <f>COUNTIF(AH3:AH60,"&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>LEN(('Respostas ao formulário 1'!G2))</f>
+        <v>44</v>
+      </c>
+      <c r="B3" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G2,$A$1,"")</f>
+        <v xml:space="preserve"> (desktop), E-reader Kobo e Kindle</v>
+      </c>
+      <c r="C3">
+        <f>LEN(B3)</f>
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <f>A3-C3</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f>LEN(('Respostas ao formulário 1'!G2))</f>
+        <v>44</v>
+      </c>
+      <c r="G3" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G2,$F$1,"")</f>
+        <v>Computador (desktop), E-reader Kobo e Kindle</v>
+      </c>
+      <c r="H3">
+        <f>LEN(G3)</f>
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <f>F3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>LEN(('Respostas ao formulário 1'!$G2))</f>
+        <v>44</v>
+      </c>
+      <c r="L3" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G2,$K$1,"")</f>
+        <v>Computador (desktop), E-reader Kobo e Kindle</v>
+      </c>
+      <c r="M3">
+        <f>LEN(L3)</f>
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <f>K3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>LEN(('Respostas ao formulário 1'!$G2))</f>
+        <v>44</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G2,$P$1,"")</f>
+        <v>Computador (desktop), E-reader Kobo e Kindle</v>
+      </c>
+      <c r="R3">
+        <f>LEN(Q3)</f>
+        <v>44</v>
+      </c>
+      <c r="S3">
+        <f>P3-R3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>LEN(('Respostas ao formulário 1'!$G2))</f>
+        <v>44</v>
+      </c>
+      <c r="V3" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G2,$U$1,"")</f>
+        <v xml:space="preserve">Computador (desktop), E-reader Kobo e </v>
+      </c>
+      <c r="W3">
+        <f>LEN(V3)</f>
+        <v>38</v>
+      </c>
+      <c r="X3">
+        <f>U3-W3</f>
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <f>LEN(('Respostas ao formulário 1'!$G2))</f>
+        <v>44</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G2,$Z$1,"")</f>
+        <v>Computador (desktop), E-reader  e Kindle</v>
+      </c>
+      <c r="AB3">
+        <f>LEN(AA3)</f>
+        <v>40</v>
+      </c>
+      <c r="AC3">
+        <f>Z3-AB3</f>
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <f>LEN(('Respostas ao formulário 1'!$G2))</f>
+        <v>44</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G2,$AE$1,"")</f>
+        <v>Computador (desktop), E-reader Kobo e Kindle</v>
+      </c>
+      <c r="AG3">
+        <f>LEN(AF3)</f>
+        <v>44</v>
+      </c>
+      <c r="AH3">
+        <f>AE3-AG3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>LEN(('Respostas ao formulário 1'!G3))</f>
+        <v>25</v>
+      </c>
+      <c r="B4" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G3,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="C4">
+        <f>LEN(B4)</f>
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <f>A4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>LEN(('Respostas ao formulário 1'!G3))</f>
+        <v>25</v>
+      </c>
+      <c r="G4" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G3,$F$1,"")</f>
+        <v>, Tablet, Notebook</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H60" si="0">LEN(G4)</f>
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I60" si="1">F4-H4</f>
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f>LEN(('Respostas ao formulário 1'!$G3))</f>
+        <v>25</v>
+      </c>
+      <c r="L4" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G3,$K$1,"")</f>
+        <v>Celular, , Notebook</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M60" si="2">LEN(L4)</f>
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N60" si="3">K4-M4</f>
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <f>LEN(('Respostas ao formulário 1'!$G3))</f>
+        <v>25</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G3,$P$1,"")</f>
+        <v xml:space="preserve">Celular, Tablet, </v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R60" si="4">LEN(Q4)</f>
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S60" si="5">P4-R4</f>
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <f>LEN(('Respostas ao formulário 1'!$G3))</f>
+        <v>25</v>
+      </c>
+      <c r="V4" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G3,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W60" si="6">LEN(V4)</f>
+        <v>25</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X60" si="7">U4-W4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>LEN(('Respostas ao formulário 1'!$G3))</f>
+        <v>25</v>
+      </c>
+      <c r="AA4" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G3,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB60" si="8">LEN(AA4)</f>
+        <v>25</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC60" si="9">Z4-AB4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>LEN(('Respostas ao formulário 1'!$G3))</f>
+        <v>25</v>
+      </c>
+      <c r="AF4" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G3,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG60" si="10">LEN(AF4)</f>
+        <v>25</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH60" si="11">AE4-AG4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>LEN(('Respostas ao formulário 1'!G4))</f>
+        <v>7</v>
+      </c>
+      <c r="B5" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G4,$A$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="C5">
+        <f>LEN(B5)</f>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>A5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>LEN(('Respostas ao formulário 1'!G4))</f>
+        <v>7</v>
+      </c>
+      <c r="G5" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G4,$F$1,"")</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <f>LEN(('Respostas ao formulário 1'!$G4))</f>
+        <v>7</v>
+      </c>
+      <c r="L5" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G4,$K$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>LEN(('Respostas ao formulário 1'!$G4))</f>
+        <v>7</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G4,$P$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>LEN(('Respostas ao formulário 1'!$G4))</f>
+        <v>7</v>
+      </c>
+      <c r="V5" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G4,$U$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>LEN(('Respostas ao formulário 1'!$G4))</f>
+        <v>7</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G4,$Z$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f>LEN(('Respostas ao formulário 1'!$G4))</f>
+        <v>7</v>
+      </c>
+      <c r="AF5" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G4,$AE$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>LEN(('Respostas ao formulário 1'!G5))</f>
+        <v>15</v>
+      </c>
+      <c r="B6" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G5,$A$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="C6">
+        <f>LEN(B6)</f>
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>A6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>LEN(('Respostas ao formulário 1'!G5))</f>
+        <v>15</v>
+      </c>
+      <c r="G6" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G5,$F$1,"")</f>
+        <v>, Tablet</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <f>LEN(('Respostas ao formulário 1'!$G5))</f>
+        <v>15</v>
+      </c>
+      <c r="L6" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G5,$K$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <f>LEN(('Respostas ao formulário 1'!$G5))</f>
+        <v>15</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G5,$P$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>LEN(('Respostas ao formulário 1'!$G5))</f>
+        <v>15</v>
+      </c>
+      <c r="V6" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G5,$U$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>LEN(('Respostas ao formulário 1'!$G5))</f>
+        <v>15</v>
+      </c>
+      <c r="AA6" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G5,$Z$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>LEN(('Respostas ao formulário 1'!$G5))</f>
+        <v>15</v>
+      </c>
+      <c r="AF6" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G5,$AE$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>LEN(('Respostas ao formulário 1'!G6))</f>
+        <v>25</v>
+      </c>
+      <c r="B7" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G6,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="C7">
+        <f>LEN(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <f>A7-C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>LEN(('Respostas ao formulário 1'!G6))</f>
+        <v>25</v>
+      </c>
+      <c r="G7" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G6,$F$1,"")</f>
+        <v>, Tablet, Notebook</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <f>LEN(('Respostas ao formulário 1'!$G6))</f>
+        <v>25</v>
+      </c>
+      <c r="L7" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G6,$K$1,"")</f>
+        <v>Celular, , Notebook</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <f>LEN(('Respostas ao formulário 1'!$G6))</f>
+        <v>25</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G6,$P$1,"")</f>
+        <v xml:space="preserve">Celular, Tablet, </v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <f>LEN(('Respostas ao formulário 1'!$G6))</f>
+        <v>25</v>
+      </c>
+      <c r="V7" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G6,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>LEN(('Respostas ao formulário 1'!$G6))</f>
+        <v>25</v>
+      </c>
+      <c r="AA7" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G6,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>LEN(('Respostas ao formulário 1'!$G6))</f>
+        <v>25</v>
+      </c>
+      <c r="AF7" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G6,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>LEN(('Respostas ao formulário 1'!G7))</f>
+        <v>37</v>
+      </c>
+      <c r="B8" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G7,$A$1,"")</f>
+        <v>Celular, Tablet,  (desktop)</v>
+      </c>
+      <c r="C8">
+        <f>LEN(B8)</f>
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <f>A8-C8</f>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f>LEN(('Respostas ao formulário 1'!G7))</f>
+        <v>37</v>
+      </c>
+      <c r="G8" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G7,$F$1,"")</f>
+        <v>, Tablet, Computador (desktop)</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f>LEN(('Respostas ao formulário 1'!$G7))</f>
+        <v>37</v>
+      </c>
+      <c r="L8" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G7,$K$1,"")</f>
+        <v>Celular, , Computador (desktop)</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <f>LEN(('Respostas ao formulário 1'!$G7))</f>
+        <v>37</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G7,$P$1,"")</f>
+        <v>Celular, Tablet, Computador (desktop)</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>LEN(('Respostas ao formulário 1'!$G7))</f>
+        <v>37</v>
+      </c>
+      <c r="V8" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G7,$U$1,"")</f>
+        <v>Celular, Tablet, Computador (desktop)</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>LEN(('Respostas ao formulário 1'!$G7))</f>
+        <v>37</v>
+      </c>
+      <c r="AA8" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G7,$Z$1,"")</f>
+        <v>Celular, Tablet, Computador (desktop)</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f>LEN(('Respostas ao formulário 1'!$G7))</f>
+        <v>37</v>
+      </c>
+      <c r="AF8" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G7,$AE$1,"")</f>
+        <v>Celular, Tablet, Computador (desktop)</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>LEN(('Respostas ao formulário 1'!G8))</f>
+        <v>34</v>
+      </c>
+      <c r="B9" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G8,$A$1,"")</f>
+        <v>Celular, Notebook, Leitor Dedicado</v>
+      </c>
+      <c r="C9">
+        <f>LEN(B9)</f>
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <f>A9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>LEN(('Respostas ao formulário 1'!G8))</f>
+        <v>34</v>
+      </c>
+      <c r="G9" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G8,$F$1,"")</f>
+        <v>, Notebook, Leitor Dedicado</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <f>LEN(('Respostas ao formulário 1'!$G8))</f>
+        <v>34</v>
+      </c>
+      <c r="L9" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G8,$K$1,"")</f>
+        <v>Celular, Notebook, Leitor Dedicado</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>LEN(('Respostas ao formulário 1'!$G8))</f>
+        <v>34</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G8,$P$1,"")</f>
+        <v>Celular, , Leitor Dedicado</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <f>LEN(('Respostas ao formulário 1'!$G8))</f>
+        <v>34</v>
+      </c>
+      <c r="V9" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G8,$U$1,"")</f>
+        <v>Celular, Notebook, Leitor Dedicado</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>LEN(('Respostas ao formulário 1'!$G8))</f>
+        <v>34</v>
+      </c>
+      <c r="AA9" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G8,$Z$1,"")</f>
+        <v>Celular, Notebook, Leitor Dedicado</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>LEN(('Respostas ao formulário 1'!$G8))</f>
+        <v>34</v>
+      </c>
+      <c r="AF9" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G8,$AE$1,"")</f>
+        <v>Celular, Notebook, Leitor Dedicado</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>LEN(('Respostas ao formulário 1'!G9))</f>
+        <v>29</v>
+      </c>
+      <c r="B10" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G9,$A$1,"")</f>
+        <v>Celular,  (desktop)</v>
+      </c>
+      <c r="C10">
+        <f>LEN(B10)</f>
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <f>A10-C10</f>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f>LEN(('Respostas ao formulário 1'!G9))</f>
+        <v>29</v>
+      </c>
+      <c r="G10" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G9,$F$1,"")</f>
+        <v>, Computador (desktop)</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <f>LEN(('Respostas ao formulário 1'!$G9))</f>
+        <v>29</v>
+      </c>
+      <c r="L10" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G9,$K$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>LEN(('Respostas ao formulário 1'!$G9))</f>
+        <v>29</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G9,$P$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>LEN(('Respostas ao formulário 1'!$G9))</f>
+        <v>29</v>
+      </c>
+      <c r="V10" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G9,$U$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f>LEN(('Respostas ao formulário 1'!$G9))</f>
+        <v>29</v>
+      </c>
+      <c r="AA10" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G9,$Z$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f>LEN(('Respostas ao formulário 1'!$G9))</f>
+        <v>29</v>
+      </c>
+      <c r="AF10" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G9,$AE$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>LEN(('Respostas ao formulário 1'!G10))</f>
+        <v>47</v>
+      </c>
+      <c r="B11" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G10,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook,  (desktop)</v>
+      </c>
+      <c r="C11">
+        <f>LEN(B11)</f>
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <f>A11-C11</f>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f>LEN(('Respostas ao formulário 1'!G10))</f>
+        <v>47</v>
+      </c>
+      <c r="G11" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G10,$F$1,"")</f>
+        <v>, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <f>LEN(('Respostas ao formulário 1'!$G10))</f>
+        <v>47</v>
+      </c>
+      <c r="L11" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G10,$K$1,"")</f>
+        <v>Celular, , Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <f>LEN(('Respostas ao formulário 1'!$G10))</f>
+        <v>47</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G10,$P$1,"")</f>
+        <v>Celular, Tablet, , Computador (desktop)</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <f>LEN(('Respostas ao formulário 1'!$G10))</f>
+        <v>47</v>
+      </c>
+      <c r="V11" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G10,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>LEN(('Respostas ao formulário 1'!$G10))</f>
+        <v>47</v>
+      </c>
+      <c r="AA11" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G10,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f>LEN(('Respostas ao formulário 1'!$G10))</f>
+        <v>47</v>
+      </c>
+      <c r="AF11" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G10,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>LEN(('Respostas ao formulário 1'!G11))</f>
+        <v>28</v>
+      </c>
+      <c r="B12" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G11,$A$1,"")</f>
+        <v>Tablet,  (desktop)</v>
+      </c>
+      <c r="C12">
+        <f>LEN(B12)</f>
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <f>A12-C12</f>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f>LEN(('Respostas ao formulário 1'!G11))</f>
+        <v>28</v>
+      </c>
+      <c r="G12" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G11,$F$1,"")</f>
+        <v>Tablet, Computador (desktop)</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>LEN(('Respostas ao formulário 1'!$G11))</f>
+        <v>28</v>
+      </c>
+      <c r="L12" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G11,$K$1,"")</f>
+        <v>, Computador (desktop)</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <f>LEN(('Respostas ao formulário 1'!$G11))</f>
+        <v>28</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G11,$P$1,"")</f>
+        <v>Tablet, Computador (desktop)</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>LEN(('Respostas ao formulário 1'!$G11))</f>
+        <v>28</v>
+      </c>
+      <c r="V12" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G11,$U$1,"")</f>
+        <v>Tablet, Computador (desktop)</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f>LEN(('Respostas ao formulário 1'!$G11))</f>
+        <v>28</v>
+      </c>
+      <c r="AA12" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G11,$Z$1,"")</f>
+        <v>Tablet, Computador (desktop)</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>LEN(('Respostas ao formulário 1'!$G11))</f>
+        <v>28</v>
+      </c>
+      <c r="AF12" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G11,$AE$1,"")</f>
+        <v>Tablet, Computador (desktop)</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>LEN(('Respostas ao formulário 1'!G12))</f>
+        <v>15</v>
+      </c>
+      <c r="B13" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G12,$A$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="C13">
+        <f>LEN(B13)</f>
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <f>A13-C13</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>LEN(('Respostas ao formulário 1'!G12))</f>
+        <v>15</v>
+      </c>
+      <c r="G13" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G12,$F$1,"")</f>
+        <v>, Tablet</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <f>LEN(('Respostas ao formulário 1'!$G12))</f>
+        <v>15</v>
+      </c>
+      <c r="L13" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G12,$K$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <f>LEN(('Respostas ao formulário 1'!$G12))</f>
+        <v>15</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G12,$P$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>LEN(('Respostas ao formulário 1'!$G12))</f>
+        <v>15</v>
+      </c>
+      <c r="V13" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G12,$U$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f>LEN(('Respostas ao formulário 1'!$G12))</f>
+        <v>15</v>
+      </c>
+      <c r="AA13" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G12,$Z$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f>LEN(('Respostas ao formulário 1'!$G12))</f>
+        <v>15</v>
+      </c>
+      <c r="AF13" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G12,$AE$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>LEN(('Respostas ao formulário 1'!G13))</f>
+        <v>39</v>
+      </c>
+      <c r="B14" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G13,$A$1,"")</f>
+        <v>Celular, Notebook,  (desktop)</v>
+      </c>
+      <c r="C14">
+        <f>LEN(B14)</f>
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <f>A14-C14</f>
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f>LEN(('Respostas ao formulário 1'!G13))</f>
+        <v>39</v>
+      </c>
+      <c r="G14" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G13,$F$1,"")</f>
+        <v>, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <f>LEN(('Respostas ao formulário 1'!$G13))</f>
+        <v>39</v>
+      </c>
+      <c r="L14" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G13,$K$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>LEN(('Respostas ao formulário 1'!$G13))</f>
+        <v>39</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G13,$P$1,"")</f>
+        <v>Celular, , Computador (desktop)</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U14">
+        <f>LEN(('Respostas ao formulário 1'!$G13))</f>
+        <v>39</v>
+      </c>
+      <c r="V14" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G13,$U$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>LEN(('Respostas ao formulário 1'!$G13))</f>
+        <v>39</v>
+      </c>
+      <c r="AA14" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G13,$Z$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f>LEN(('Respostas ao formulário 1'!$G13))</f>
+        <v>39</v>
+      </c>
+      <c r="AF14" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G13,$AE$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>LEN(('Respostas ao formulário 1'!G14))</f>
+        <v>7</v>
+      </c>
+      <c r="B15" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G14,$A$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="C15">
+        <f>LEN(B15)</f>
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <f>A15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>LEN(('Respostas ao formulário 1'!G14))</f>
+        <v>7</v>
+      </c>
+      <c r="G15" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G14,$F$1,"")</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <f>LEN(('Respostas ao formulário 1'!$G14))</f>
+        <v>7</v>
+      </c>
+      <c r="L15" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G14,$K$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>LEN(('Respostas ao formulário 1'!$G14))</f>
+        <v>7</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G14,$P$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>LEN(('Respostas ao formulário 1'!$G14))</f>
+        <v>7</v>
+      </c>
+      <c r="V15" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G14,$U$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>LEN(('Respostas ao formulário 1'!$G14))</f>
+        <v>7</v>
+      </c>
+      <c r="AA15" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G14,$Z$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f>LEN(('Respostas ao formulário 1'!$G14))</f>
+        <v>7</v>
+      </c>
+      <c r="AF15" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G14,$AE$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>LEN(('Respostas ao formulário 1'!G15))</f>
+        <v>39</v>
+      </c>
+      <c r="B16" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G15,$A$1,"")</f>
+        <v>Celular, Notebook,  (desktop)</v>
+      </c>
+      <c r="C16">
+        <f>LEN(B16)</f>
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <f>A16-C16</f>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f>LEN(('Respostas ao formulário 1'!G15))</f>
+        <v>39</v>
+      </c>
+      <c r="G16" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G15,$F$1,"")</f>
+        <v>, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <f>LEN(('Respostas ao formulário 1'!$G15))</f>
+        <v>39</v>
+      </c>
+      <c r="L16" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G15,$K$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>LEN(('Respostas ao formulário 1'!$G15))</f>
+        <v>39</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G15,$P$1,"")</f>
+        <v>Celular, , Computador (desktop)</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <f>LEN(('Respostas ao formulário 1'!$G15))</f>
+        <v>39</v>
+      </c>
+      <c r="V16" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G15,$U$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>LEN(('Respostas ao formulário 1'!$G15))</f>
+        <v>39</v>
+      </c>
+      <c r="AA16" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G15,$Z$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f>LEN(('Respostas ao formulário 1'!$G15))</f>
+        <v>39</v>
+      </c>
+      <c r="AF16" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G15,$AE$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>LEN(('Respostas ao formulário 1'!G16))</f>
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G16,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C17">
+        <f>LEN(B17)</f>
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <f>A17-C17</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>LEN(('Respostas ao formulário 1'!G16))</f>
+        <v>17</v>
+      </c>
+      <c r="G17" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G16,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <f>LEN(('Respostas ao formulário 1'!$G16))</f>
+        <v>17</v>
+      </c>
+      <c r="L17" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G16,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>LEN(('Respostas ao formulário 1'!$G16))</f>
+        <v>17</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G16,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U17">
+        <f>LEN(('Respostas ao formulário 1'!$G16))</f>
+        <v>17</v>
+      </c>
+      <c r="V17" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G16,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>LEN(('Respostas ao formulário 1'!$G16))</f>
+        <v>17</v>
+      </c>
+      <c r="AA17" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G16,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f>LEN(('Respostas ao formulário 1'!$G16))</f>
+        <v>17</v>
+      </c>
+      <c r="AF17" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G16,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>LEN(('Respostas ao formulário 1'!G17))</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G17,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C18">
+        <f>LEN(B18)</f>
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f>A18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>LEN(('Respostas ao formulário 1'!G17))</f>
+        <v>17</v>
+      </c>
+      <c r="G18" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G17,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <f>LEN(('Respostas ao formulário 1'!$G17))</f>
+        <v>17</v>
+      </c>
+      <c r="L18" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G17,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>LEN(('Respostas ao formulário 1'!$G17))</f>
+        <v>17</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G17,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <f>LEN(('Respostas ao formulário 1'!$G17))</f>
+        <v>17</v>
+      </c>
+      <c r="V18" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G17,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f>LEN(('Respostas ao formulário 1'!$G17))</f>
+        <v>17</v>
+      </c>
+      <c r="AA18" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G17,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <f>LEN(('Respostas ao formulário 1'!$G17))</f>
+        <v>17</v>
+      </c>
+      <c r="AF18" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G17,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>LEN(('Respostas ao formulário 1'!G18))</f>
+        <v>47</v>
+      </c>
+      <c r="B19" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G18,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook,  (desktop)</v>
+      </c>
+      <c r="C19">
+        <f>LEN(B19)</f>
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <f>A19-C19</f>
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f>LEN(('Respostas ao formulário 1'!G18))</f>
+        <v>47</v>
+      </c>
+      <c r="G19" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G18,$F$1,"")</f>
+        <v>, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <f>LEN(('Respostas ao formulário 1'!$G18))</f>
+        <v>47</v>
+      </c>
+      <c r="L19" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G18,$K$1,"")</f>
+        <v>Celular, , Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <f>LEN(('Respostas ao formulário 1'!$G18))</f>
+        <v>47</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G18,$P$1,"")</f>
+        <v>Celular, Tablet, , Computador (desktop)</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <f>LEN(('Respostas ao formulário 1'!$G18))</f>
+        <v>47</v>
+      </c>
+      <c r="V19" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G18,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>LEN(('Respostas ao formulário 1'!$G18))</f>
+        <v>47</v>
+      </c>
+      <c r="AA19" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G18,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f>LEN(('Respostas ao formulário 1'!$G18))</f>
+        <v>47</v>
+      </c>
+      <c r="AF19" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G18,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>LEN(('Respostas ao formulário 1'!G19))</f>
+        <v>17</v>
+      </c>
+      <c r="B20" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G19,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C20">
+        <f>LEN(B20)</f>
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <f>A20-C20</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>LEN(('Respostas ao formulário 1'!G19))</f>
+        <v>17</v>
+      </c>
+      <c r="G20" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G19,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <f>LEN(('Respostas ao formulário 1'!$G19))</f>
+        <v>17</v>
+      </c>
+      <c r="L20" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G19,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>LEN(('Respostas ao formulário 1'!$G19))</f>
+        <v>17</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G19,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U20">
+        <f>LEN(('Respostas ao formulário 1'!$G19))</f>
+        <v>17</v>
+      </c>
+      <c r="V20" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G19,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>LEN(('Respostas ao formulário 1'!$G19))</f>
+        <v>17</v>
+      </c>
+      <c r="AA20" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G19,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f>LEN(('Respostas ao formulário 1'!$G19))</f>
+        <v>17</v>
+      </c>
+      <c r="AF20" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G19,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>LEN(('Respostas ao formulário 1'!G20))</f>
+        <v>29</v>
+      </c>
+      <c r="B21" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G20,$A$1,"")</f>
+        <v>Celular,  (desktop)</v>
+      </c>
+      <c r="C21">
+        <f>LEN(B21)</f>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f>A21-C21</f>
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f>LEN(('Respostas ao formulário 1'!G20))</f>
+        <v>29</v>
+      </c>
+      <c r="G21" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G20,$F$1,"")</f>
+        <v>, Computador (desktop)</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <f>LEN(('Respostas ao formulário 1'!$G20))</f>
+        <v>29</v>
+      </c>
+      <c r="L21" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G20,$K$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>LEN(('Respostas ao formulário 1'!$G20))</f>
+        <v>29</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G20,$P$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>LEN(('Respostas ao formulário 1'!$G20))</f>
+        <v>29</v>
+      </c>
+      <c r="V21" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G20,$U$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f>LEN(('Respostas ao formulário 1'!$G20))</f>
+        <v>29</v>
+      </c>
+      <c r="AA21" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G20,$Z$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f>LEN(('Respostas ao formulário 1'!$G20))</f>
+        <v>29</v>
+      </c>
+      <c r="AF21" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G20,$AE$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>LEN(('Respostas ao formulário 1'!G21))</f>
+        <v>15</v>
+      </c>
+      <c r="B22" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G21,$A$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="C22">
+        <f>LEN(B22)</f>
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <f>A22-C22</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>LEN(('Respostas ao formulário 1'!G21))</f>
+        <v>15</v>
+      </c>
+      <c r="G22" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G21,$F$1,"")</f>
+        <v>, Tablet</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <f>LEN(('Respostas ao formulário 1'!$G21))</f>
+        <v>15</v>
+      </c>
+      <c r="L22" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G21,$K$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <f>LEN(('Respostas ao formulário 1'!$G21))</f>
+        <v>15</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G21,$P$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>LEN(('Respostas ao formulário 1'!$G21))</f>
+        <v>15</v>
+      </c>
+      <c r="V22" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G21,$U$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f>LEN(('Respostas ao formulário 1'!$G21))</f>
+        <v>15</v>
+      </c>
+      <c r="AA22" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G21,$Z$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f>LEN(('Respostas ao formulário 1'!$G21))</f>
+        <v>15</v>
+      </c>
+      <c r="AF22" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G21,$AE$1,"")</f>
+        <v>Celular, Tablet</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>LEN(('Respostas ao formulário 1'!G22))</f>
+        <v>28</v>
+      </c>
+      <c r="B23" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G22,$A$1,"")</f>
+        <v xml:space="preserve"> (desktop), Kindle</v>
+      </c>
+      <c r="C23">
+        <f>LEN(B23)</f>
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <f>A23-C23</f>
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f>LEN(('Respostas ao formulário 1'!G22))</f>
+        <v>28</v>
+      </c>
+      <c r="G23" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G22,$F$1,"")</f>
+        <v>Computador (desktop), Kindle</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>LEN(('Respostas ao formulário 1'!$G22))</f>
+        <v>28</v>
+      </c>
+      <c r="L23" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G22,$K$1,"")</f>
+        <v>Computador (desktop), Kindle</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>LEN(('Respostas ao formulário 1'!$G22))</f>
+        <v>28</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G22,$P$1,"")</f>
+        <v>Computador (desktop), Kindle</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>LEN(('Respostas ao formulário 1'!$G22))</f>
+        <v>28</v>
+      </c>
+      <c r="V23" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G22,$U$1,"")</f>
+        <v xml:space="preserve">Computador (desktop), </v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z23">
+        <f>LEN(('Respostas ao formulário 1'!$G22))</f>
+        <v>28</v>
+      </c>
+      <c r="AA23" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G22,$Z$1,"")</f>
+        <v>Computador (desktop), Kindle</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f>LEN(('Respostas ao formulário 1'!$G22))</f>
+        <v>28</v>
+      </c>
+      <c r="AF23" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G22,$AE$1,"")</f>
+        <v>Computador (desktop), Kindle</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>LEN(('Respostas ao formulário 1'!G23))</f>
+        <v>15</v>
+      </c>
+      <c r="B24" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G23,$A$1,"")</f>
+        <v>Celular, Kindle</v>
+      </c>
+      <c r="C24">
+        <f>LEN(B24)</f>
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <f>A24-C24</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>LEN(('Respostas ao formulário 1'!G23))</f>
+        <v>15</v>
+      </c>
+      <c r="G24" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G23,$F$1,"")</f>
+        <v>, Kindle</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <f>LEN(('Respostas ao formulário 1'!$G23))</f>
+        <v>15</v>
+      </c>
+      <c r="L24" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G23,$K$1,"")</f>
+        <v>Celular, Kindle</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>LEN(('Respostas ao formulário 1'!$G23))</f>
+        <v>15</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G23,$P$1,"")</f>
+        <v>Celular, Kindle</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>LEN(('Respostas ao formulário 1'!$G23))</f>
+        <v>15</v>
+      </c>
+      <c r="V24" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G23,$U$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z24">
+        <f>LEN(('Respostas ao formulário 1'!$G23))</f>
+        <v>15</v>
+      </c>
+      <c r="AA24" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G23,$Z$1,"")</f>
+        <v>Celular, Kindle</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f>LEN(('Respostas ao formulário 1'!$G23))</f>
+        <v>15</v>
+      </c>
+      <c r="AF24" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G23,$AE$1,"")</f>
+        <v>Celular, Kindle</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>LEN(('Respostas ao formulário 1'!G24))</f>
+        <v>47</v>
+      </c>
+      <c r="B25" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G24,$A$1,"")</f>
+        <v>Celular, Notebook,  (desktop), kindle</v>
+      </c>
+      <c r="C25">
+        <f>LEN(B25)</f>
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <f>A25-C25</f>
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f>LEN(('Respostas ao formulário 1'!G24))</f>
+        <v>47</v>
+      </c>
+      <c r="G25" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G24,$F$1,"")</f>
+        <v>, Notebook, Computador (desktop), kindle</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <f>LEN(('Respostas ao formulário 1'!$G24))</f>
+        <v>47</v>
+      </c>
+      <c r="L25" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G24,$K$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop), kindle</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>LEN(('Respostas ao formulário 1'!$G24))</f>
+        <v>47</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G24,$P$1,"")</f>
+        <v>Celular, , Computador (desktop), kindle</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U25">
+        <f>LEN(('Respostas ao formulário 1'!$G24))</f>
+        <v>47</v>
+      </c>
+      <c r="V25" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G24,$U$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop), kindle</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f>LEN(('Respostas ao formulário 1'!$G24))</f>
+        <v>47</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G24,$Z$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop), kindle</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f>LEN(('Respostas ao formulário 1'!$G24))</f>
+        <v>47</v>
+      </c>
+      <c r="AF25" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G24,$AE$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop), kindle</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>LEN(('Respostas ao formulário 1'!G25))</f>
+        <v>11</v>
+      </c>
+      <c r="B26" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G25,$A$1,"")</f>
+        <v>Saraiva Lev</v>
+      </c>
+      <c r="C26">
+        <f>LEN(B26)</f>
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <f>A26-C26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>LEN(('Respostas ao formulário 1'!G25))</f>
+        <v>11</v>
+      </c>
+      <c r="G26" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G25,$F$1,"")</f>
+        <v>Saraiva Lev</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>LEN(('Respostas ao formulário 1'!$G25))</f>
+        <v>11</v>
+      </c>
+      <c r="L26" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G25,$K$1,"")</f>
+        <v>Saraiva Lev</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>LEN(('Respostas ao formulário 1'!$G25))</f>
+        <v>11</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G25,$P$1,"")</f>
+        <v>Saraiva Lev</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>LEN(('Respostas ao formulário 1'!$G25))</f>
+        <v>11</v>
+      </c>
+      <c r="V26" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G25,$U$1,"")</f>
+        <v>Saraiva Lev</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f>LEN(('Respostas ao formulário 1'!$G25))</f>
+        <v>11</v>
+      </c>
+      <c r="AA26" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G25,$Z$1,"")</f>
+        <v>Saraiva Lev</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f>LEN(('Respostas ao formulário 1'!$G25))</f>
+        <v>11</v>
+      </c>
+      <c r="AF26" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G25,$AE$1,"")</f>
+        <v>Saraiva Lev</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>LEN(('Respostas ao formulário 1'!G26))</f>
+        <v>47</v>
+      </c>
+      <c r="B27" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G26,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook,  (desktop)</v>
+      </c>
+      <c r="C27">
+        <f>LEN(B27)</f>
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <f>A27-C27</f>
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <f>LEN(('Respostas ao formulário 1'!G26))</f>
+        <v>47</v>
+      </c>
+      <c r="G27" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G26,$F$1,"")</f>
+        <v>, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <f>LEN(('Respostas ao formulário 1'!$G26))</f>
+        <v>47</v>
+      </c>
+      <c r="L27" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G26,$K$1,"")</f>
+        <v>Celular, , Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <f>LEN(('Respostas ao formulário 1'!$G26))</f>
+        <v>47</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G26,$P$1,"")</f>
+        <v>Celular, Tablet, , Computador (desktop)</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U27">
+        <f>LEN(('Respostas ao formulário 1'!$G26))</f>
+        <v>47</v>
+      </c>
+      <c r="V27" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G26,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f>LEN(('Respostas ao formulário 1'!$G26))</f>
+        <v>47</v>
+      </c>
+      <c r="AA27" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G26,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f>LEN(('Respostas ao formulário 1'!$G26))</f>
+        <v>47</v>
+      </c>
+      <c r="AF27" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G26,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>LEN(('Respostas ao formulário 1'!G27))</f>
+        <v>47</v>
+      </c>
+      <c r="B28" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G27,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook,  (desktop)</v>
+      </c>
+      <c r="C28">
+        <f>LEN(B28)</f>
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <f>A28-C28</f>
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <f>LEN(('Respostas ao formulário 1'!G27))</f>
+        <v>47</v>
+      </c>
+      <c r="G28" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G27,$F$1,"")</f>
+        <v>, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <f>LEN(('Respostas ao formulário 1'!$G27))</f>
+        <v>47</v>
+      </c>
+      <c r="L28" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G27,$K$1,"")</f>
+        <v>Celular, , Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <f>LEN(('Respostas ao formulário 1'!$G27))</f>
+        <v>47</v>
+      </c>
+      <c r="Q28" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G27,$P$1,"")</f>
+        <v>Celular, Tablet, , Computador (desktop)</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <f>LEN(('Respostas ao formulário 1'!$G27))</f>
+        <v>47</v>
+      </c>
+      <c r="V28" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G27,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f>LEN(('Respostas ao formulário 1'!$G27))</f>
+        <v>47</v>
+      </c>
+      <c r="AA28" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G27,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f>LEN(('Respostas ao formulário 1'!$G27))</f>
+        <v>47</v>
+      </c>
+      <c r="AF28" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G27,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>LEN(('Respostas ao formulário 1'!G28))</f>
+        <v>25</v>
+      </c>
+      <c r="B29" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G28,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="C29">
+        <f>LEN(B29)</f>
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <f>A29-C29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>LEN(('Respostas ao formulário 1'!G28))</f>
+        <v>25</v>
+      </c>
+      <c r="G29" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G28,$F$1,"")</f>
+        <v>, Tablet, Notebook</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <f>LEN(('Respostas ao formulário 1'!$G28))</f>
+        <v>25</v>
+      </c>
+      <c r="L29" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G28,$K$1,"")</f>
+        <v>Celular, , Notebook</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <f>LEN(('Respostas ao formulário 1'!$G28))</f>
+        <v>25</v>
+      </c>
+      <c r="Q29" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G28,$P$1,"")</f>
+        <v xml:space="preserve">Celular, Tablet, </v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <f>LEN(('Respostas ao formulário 1'!$G28))</f>
+        <v>25</v>
+      </c>
+      <c r="V29" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G28,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f>LEN(('Respostas ao formulário 1'!$G28))</f>
+        <v>25</v>
+      </c>
+      <c r="AA29" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G28,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f>LEN(('Respostas ao formulário 1'!$G28))</f>
+        <v>25</v>
+      </c>
+      <c r="AF29" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G28,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>LEN(('Respostas ao formulário 1'!G29))</f>
+        <v>6</v>
+      </c>
+      <c r="B30" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G29,$A$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="C30">
+        <f>LEN(B30)</f>
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f>A30-C30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>LEN(('Respostas ao formulário 1'!G29))</f>
+        <v>6</v>
+      </c>
+      <c r="G30" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G29,$F$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>LEN(('Respostas ao formulário 1'!$G29))</f>
+        <v>6</v>
+      </c>
+      <c r="L30" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G29,$K$1,"")</f>
+        <v/>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <f>LEN(('Respostas ao formulário 1'!$G29))</f>
+        <v>6</v>
+      </c>
+      <c r="Q30" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G29,$P$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>LEN(('Respostas ao formulário 1'!$G29))</f>
+        <v>6</v>
+      </c>
+      <c r="V30" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G29,$U$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f>LEN(('Respostas ao formulário 1'!$G29))</f>
+        <v>6</v>
+      </c>
+      <c r="AA30" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G29,$Z$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f>LEN(('Respostas ao formulário 1'!$G29))</f>
+        <v>6</v>
+      </c>
+      <c r="AF30" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G29,$AE$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>LEN(('Respostas ao formulário 1'!G30))</f>
+        <v>17</v>
+      </c>
+      <c r="B31" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G30,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C31">
+        <f>LEN(B31)</f>
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <f>A31-C31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>LEN(('Respostas ao formulário 1'!G30))</f>
+        <v>17</v>
+      </c>
+      <c r="G31" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G30,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <f>LEN(('Respostas ao formulário 1'!$G30))</f>
+        <v>17</v>
+      </c>
+      <c r="L31" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G30,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>LEN(('Respostas ao formulário 1'!$G30))</f>
+        <v>17</v>
+      </c>
+      <c r="Q31" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G30,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <f>LEN(('Respostas ao formulário 1'!$G30))</f>
+        <v>17</v>
+      </c>
+      <c r="V31" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G30,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f>LEN(('Respostas ao formulário 1'!$G30))</f>
+        <v>17</v>
+      </c>
+      <c r="AA31" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G30,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f>LEN(('Respostas ao formulário 1'!$G30))</f>
+        <v>17</v>
+      </c>
+      <c r="AF31" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G30,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>LEN(('Respostas ao formulário 1'!G31))</f>
+        <v>29</v>
+      </c>
+      <c r="B32" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G31,$A$1,"")</f>
+        <v>Celular,  (desktop)</v>
+      </c>
+      <c r="C32">
+        <f>LEN(B32)</f>
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <f>A32-C32</f>
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <f>LEN(('Respostas ao formulário 1'!G31))</f>
+        <v>29</v>
+      </c>
+      <c r="G32" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G31,$F$1,"")</f>
+        <v>, Computador (desktop)</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <f>LEN(('Respostas ao formulário 1'!$G31))</f>
+        <v>29</v>
+      </c>
+      <c r="L32" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G31,$K$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>LEN(('Respostas ao formulário 1'!$G31))</f>
+        <v>29</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G31,$P$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>LEN(('Respostas ao formulário 1'!$G31))</f>
+        <v>29</v>
+      </c>
+      <c r="V32" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G31,$U$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f>LEN(('Respostas ao formulário 1'!$G31))</f>
+        <v>29</v>
+      </c>
+      <c r="AA32" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G31,$Z$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f>LEN(('Respostas ao formulário 1'!$G31))</f>
+        <v>29</v>
+      </c>
+      <c r="AF32" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G31,$AE$1,"")</f>
+        <v>Celular, Computador (desktop)</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>LEN(('Respostas ao formulário 1'!G32))</f>
+        <v>17</v>
+      </c>
+      <c r="B33" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G32,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C33">
+        <f>LEN(B33)</f>
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <f>A33-C33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>LEN(('Respostas ao formulário 1'!G32))</f>
+        <v>17</v>
+      </c>
+      <c r="G33" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G32,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <f>LEN(('Respostas ao formulário 1'!$G32))</f>
+        <v>17</v>
+      </c>
+      <c r="L33" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G32,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>LEN(('Respostas ao formulário 1'!$G32))</f>
+        <v>17</v>
+      </c>
+      <c r="Q33" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G32,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U33">
+        <f>LEN(('Respostas ao formulário 1'!$G32))</f>
+        <v>17</v>
+      </c>
+      <c r="V33" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G32,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f>LEN(('Respostas ao formulário 1'!$G32))</f>
+        <v>17</v>
+      </c>
+      <c r="AA33" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G32,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f>LEN(('Respostas ao formulário 1'!$G32))</f>
+        <v>17</v>
+      </c>
+      <c r="AF33" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G32,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>LEN(('Respostas ao formulário 1'!G33))</f>
+        <v>25</v>
+      </c>
+      <c r="B34" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G33,$A$1,"")</f>
+        <v>Celular, Notebook, Kindle</v>
+      </c>
+      <c r="C34">
+        <f>LEN(B34)</f>
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <f>A34-C34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>LEN(('Respostas ao formulário 1'!G33))</f>
+        <v>25</v>
+      </c>
+      <c r="G34" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G33,$F$1,"")</f>
+        <v>, Notebook, Kindle</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <f>LEN(('Respostas ao formulário 1'!$G33))</f>
+        <v>25</v>
+      </c>
+      <c r="L34" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G33,$K$1,"")</f>
+        <v>Celular, Notebook, Kindle</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>LEN(('Respostas ao formulário 1'!$G33))</f>
+        <v>25</v>
+      </c>
+      <c r="Q34" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G33,$P$1,"")</f>
+        <v>Celular, , Kindle</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U34">
+        <f>LEN(('Respostas ao formulário 1'!$G33))</f>
+        <v>25</v>
+      </c>
+      <c r="V34" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G33,$U$1,"")</f>
+        <v xml:space="preserve">Celular, Notebook, </v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z34">
+        <f>LEN(('Respostas ao formulário 1'!$G33))</f>
+        <v>25</v>
+      </c>
+      <c r="AA34" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G33,$Z$1,"")</f>
+        <v>Celular, Notebook, Kindle</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f>LEN(('Respostas ao formulário 1'!$G33))</f>
+        <v>25</v>
+      </c>
+      <c r="AF34" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G33,$AE$1,"")</f>
+        <v>Celular, Notebook, Kindle</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>LEN(('Respostas ao formulário 1'!G34))</f>
+        <v>47</v>
+      </c>
+      <c r="B35" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G34,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook,  (desktop)</v>
+      </c>
+      <c r="C35">
+        <f>LEN(B35)</f>
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <f>A35-C35</f>
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <f>LEN(('Respostas ao formulário 1'!G34))</f>
+        <v>47</v>
+      </c>
+      <c r="G35" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G34,$F$1,"")</f>
+        <v>, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <f>LEN(('Respostas ao formulário 1'!$G34))</f>
+        <v>47</v>
+      </c>
+      <c r="L35" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G34,$K$1,"")</f>
+        <v>Celular, , Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <f>LEN(('Respostas ao formulário 1'!$G34))</f>
+        <v>47</v>
+      </c>
+      <c r="Q35" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G34,$P$1,"")</f>
+        <v>Celular, Tablet, , Computador (desktop)</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U35">
+        <f>LEN(('Respostas ao formulário 1'!$G34))</f>
+        <v>47</v>
+      </c>
+      <c r="V35" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G34,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f>LEN(('Respostas ao formulário 1'!$G34))</f>
+        <v>47</v>
+      </c>
+      <c r="AA35" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G34,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f>LEN(('Respostas ao formulário 1'!$G34))</f>
+        <v>47</v>
+      </c>
+      <c r="AF35" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G34,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>LEN(('Respostas ao formulário 1'!G35))</f>
+        <v>17</v>
+      </c>
+      <c r="B36" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G35,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C36">
+        <f>LEN(B36)</f>
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <f>A36-C36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>LEN(('Respostas ao formulário 1'!G35))</f>
+        <v>17</v>
+      </c>
+      <c r="G36" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G35,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <f>LEN(('Respostas ao formulário 1'!$G35))</f>
+        <v>17</v>
+      </c>
+      <c r="L36" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G35,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>LEN(('Respostas ao formulário 1'!$G35))</f>
+        <v>17</v>
+      </c>
+      <c r="Q36" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G35,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U36">
+        <f>LEN(('Respostas ao formulário 1'!$G35))</f>
+        <v>17</v>
+      </c>
+      <c r="V36" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G35,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f>LEN(('Respostas ao formulário 1'!$G35))</f>
+        <v>17</v>
+      </c>
+      <c r="AA36" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G35,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f>LEN(('Respostas ao formulário 1'!$G35))</f>
+        <v>17</v>
+      </c>
+      <c r="AF36" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G35,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>LEN(('Respostas ao formulário 1'!G36))</f>
+        <v>47</v>
+      </c>
+      <c r="B37" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G36,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook,  (desktop)</v>
+      </c>
+      <c r="C37">
+        <f>LEN(B37)</f>
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <f>A37-C37</f>
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <f>LEN(('Respostas ao formulário 1'!G36))</f>
+        <v>47</v>
+      </c>
+      <c r="G37" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G36,$F$1,"")</f>
+        <v>, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <f>LEN(('Respostas ao formulário 1'!$G36))</f>
+        <v>47</v>
+      </c>
+      <c r="L37" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G36,$K$1,"")</f>
+        <v>Celular, , Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <f>LEN(('Respostas ao formulário 1'!$G36))</f>
+        <v>47</v>
+      </c>
+      <c r="Q37" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G36,$P$1,"")</f>
+        <v>Celular, Tablet, , Computador (desktop)</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U37">
+        <f>LEN(('Respostas ao formulário 1'!$G36))</f>
+        <v>47</v>
+      </c>
+      <c r="V37" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G36,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f>LEN(('Respostas ao formulário 1'!$G36))</f>
+        <v>47</v>
+      </c>
+      <c r="AA37" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G36,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f>LEN(('Respostas ao formulário 1'!$G36))</f>
+        <v>47</v>
+      </c>
+      <c r="AF37" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G36,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>LEN(('Respostas ao formulário 1'!G37))</f>
+        <v>6</v>
+      </c>
+      <c r="B38" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G37,$A$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="C38">
+        <f>LEN(B38)</f>
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <f>A38-C38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>LEN(('Respostas ao formulário 1'!G37))</f>
+        <v>6</v>
+      </c>
+      <c r="G38" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G37,$F$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f>LEN(('Respostas ao formulário 1'!$G37))</f>
+        <v>6</v>
+      </c>
+      <c r="L38" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G37,$K$1,"")</f>
+        <v/>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <f>LEN(('Respostas ao formulário 1'!$G37))</f>
+        <v>6</v>
+      </c>
+      <c r="Q38" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G37,$P$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f>LEN(('Respostas ao formulário 1'!$G37))</f>
+        <v>6</v>
+      </c>
+      <c r="V38" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G37,$U$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f>LEN(('Respostas ao formulário 1'!$G37))</f>
+        <v>6</v>
+      </c>
+      <c r="AA38" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G37,$Z$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f>LEN(('Respostas ao formulário 1'!$G37))</f>
+        <v>6</v>
+      </c>
+      <c r="AF38" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G37,$AE$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>LEN(('Respostas ao formulário 1'!G38))</f>
+        <v>6</v>
+      </c>
+      <c r="B39" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G38,$A$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="C39">
+        <f>LEN(B39)</f>
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <f>A39-C39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>LEN(('Respostas ao formulário 1'!G38))</f>
+        <v>6</v>
+      </c>
+      <c r="G39" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G38,$F$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f>LEN(('Respostas ao formulário 1'!$G38))</f>
+        <v>6</v>
+      </c>
+      <c r="L39" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G38,$K$1,"")</f>
+        <v/>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <f>LEN(('Respostas ao formulário 1'!$G38))</f>
+        <v>6</v>
+      </c>
+      <c r="Q39" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G38,$P$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>LEN(('Respostas ao formulário 1'!$G38))</f>
+        <v>6</v>
+      </c>
+      <c r="V39" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G38,$U$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f>LEN(('Respostas ao formulário 1'!$G38))</f>
+        <v>6</v>
+      </c>
+      <c r="AA39" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G38,$Z$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f>LEN(('Respostas ao formulário 1'!$G38))</f>
+        <v>6</v>
+      </c>
+      <c r="AF39" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G38,$AE$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>LEN(('Respostas ao formulário 1'!G39))</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G39,$A$1,"")</f>
+        <v>Celular, Notebook,  (desktop)</v>
+      </c>
+      <c r="C40">
+        <f>LEN(B40)</f>
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <f>A40-C40</f>
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <f>LEN(('Respostas ao formulário 1'!G39))</f>
+        <v>39</v>
+      </c>
+      <c r="G40" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G39,$F$1,"")</f>
+        <v>, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <f>LEN(('Respostas ao formulário 1'!$G39))</f>
+        <v>39</v>
+      </c>
+      <c r="L40" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G39,$K$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f>LEN(('Respostas ao formulário 1'!$G39))</f>
+        <v>39</v>
+      </c>
+      <c r="Q40" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G39,$P$1,"")</f>
+        <v>Celular, , Computador (desktop)</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U40">
+        <f>LEN(('Respostas ao formulário 1'!$G39))</f>
+        <v>39</v>
+      </c>
+      <c r="V40" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G39,$U$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f>LEN(('Respostas ao formulário 1'!$G39))</f>
+        <v>39</v>
+      </c>
+      <c r="AA40" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G39,$Z$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f>LEN(('Respostas ao formulário 1'!$G39))</f>
+        <v>39</v>
+      </c>
+      <c r="AF40" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G39,$AE$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>LEN(('Respostas ao formulário 1'!G40))</f>
+        <v>17</v>
+      </c>
+      <c r="B41" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G40,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C41">
+        <f>LEN(B41)</f>
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <f>A41-C41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>LEN(('Respostas ao formulário 1'!G40))</f>
+        <v>17</v>
+      </c>
+      <c r="G41" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G40,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <f>LEN(('Respostas ao formulário 1'!$G40))</f>
+        <v>17</v>
+      </c>
+      <c r="L41" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G40,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f>LEN(('Respostas ao formulário 1'!$G40))</f>
+        <v>17</v>
+      </c>
+      <c r="Q41" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G40,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U41">
+        <f>LEN(('Respostas ao formulário 1'!$G40))</f>
+        <v>17</v>
+      </c>
+      <c r="V41" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G40,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f>LEN(('Respostas ao formulário 1'!$G40))</f>
+        <v>17</v>
+      </c>
+      <c r="AA41" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G40,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f>LEN(('Respostas ao formulário 1'!$G40))</f>
+        <v>17</v>
+      </c>
+      <c r="AF41" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G40,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f>LEN(('Respostas ao formulário 1'!G41))</f>
+        <v>17</v>
+      </c>
+      <c r="B42" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G41,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C42">
+        <f>LEN(B42)</f>
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <f>A42-C42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>LEN(('Respostas ao formulário 1'!G41))</f>
+        <v>17</v>
+      </c>
+      <c r="G42" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G41,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <f>LEN(('Respostas ao formulário 1'!$G41))</f>
+        <v>17</v>
+      </c>
+      <c r="L42" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G41,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f>LEN(('Respostas ao formulário 1'!$G41))</f>
+        <v>17</v>
+      </c>
+      <c r="Q42" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G41,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U42">
+        <f>LEN(('Respostas ao formulário 1'!$G41))</f>
+        <v>17</v>
+      </c>
+      <c r="V42" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G41,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f>LEN(('Respostas ao formulário 1'!$G41))</f>
+        <v>17</v>
+      </c>
+      <c r="AA42" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G41,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f>LEN(('Respostas ao formulário 1'!$G41))</f>
+        <v>17</v>
+      </c>
+      <c r="AF42" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G41,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>LEN(('Respostas ao formulário 1'!G42))</f>
+        <v>25</v>
+      </c>
+      <c r="B43" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G42,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="C43">
+        <f>LEN(B43)</f>
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <f>A43-C43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>LEN(('Respostas ao formulário 1'!G42))</f>
+        <v>25</v>
+      </c>
+      <c r="G43" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G42,$F$1,"")</f>
+        <v>, Tablet, Notebook</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <f>LEN(('Respostas ao formulário 1'!$G42))</f>
+        <v>25</v>
+      </c>
+      <c r="L43" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G42,$K$1,"")</f>
+        <v>Celular, , Notebook</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <f>LEN(('Respostas ao formulário 1'!$G42))</f>
+        <v>25</v>
+      </c>
+      <c r="Q43" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G42,$P$1,"")</f>
+        <v xml:space="preserve">Celular, Tablet, </v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U43">
+        <f>LEN(('Respostas ao formulário 1'!$G42))</f>
+        <v>25</v>
+      </c>
+      <c r="V43" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G42,$U$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f>LEN(('Respostas ao formulário 1'!$G42))</f>
+        <v>25</v>
+      </c>
+      <c r="AA43" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G42,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f>LEN(('Respostas ao formulário 1'!$G42))</f>
+        <v>25</v>
+      </c>
+      <c r="AF43" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G42,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f>LEN(('Respostas ao formulário 1'!G43))</f>
+        <v>17</v>
+      </c>
+      <c r="B44" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G43,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C44">
+        <f>LEN(B44)</f>
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <f>A44-C44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>LEN(('Respostas ao formulário 1'!G43))</f>
+        <v>17</v>
+      </c>
+      <c r="G44" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G43,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <f>LEN(('Respostas ao formulário 1'!$G43))</f>
+        <v>17</v>
+      </c>
+      <c r="L44" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G43,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f>LEN(('Respostas ao formulário 1'!$G43))</f>
+        <v>17</v>
+      </c>
+      <c r="Q44" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G43,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U44">
+        <f>LEN(('Respostas ao formulário 1'!$G43))</f>
+        <v>17</v>
+      </c>
+      <c r="V44" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G43,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f>LEN(('Respostas ao formulário 1'!$G43))</f>
+        <v>17</v>
+      </c>
+      <c r="AA44" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G43,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f>LEN(('Respostas ao formulário 1'!$G43))</f>
+        <v>17</v>
+      </c>
+      <c r="AF44" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G43,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f>LEN(('Respostas ao formulário 1'!G44))</f>
+        <v>20</v>
+      </c>
+      <c r="B45" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G44,$A$1,"")</f>
+        <v xml:space="preserve"> (desktop)</v>
+      </c>
+      <c r="C45">
+        <f>LEN(B45)</f>
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <f>A45-C45</f>
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <f>LEN(('Respostas ao formulário 1'!G44))</f>
+        <v>20</v>
+      </c>
+      <c r="G45" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G44,$F$1,"")</f>
+        <v>Computador (desktop)</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f>LEN(('Respostas ao formulário 1'!$G44))</f>
+        <v>20</v>
+      </c>
+      <c r="L45" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G44,$K$1,"")</f>
+        <v>Computador (desktop)</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f>LEN(('Respostas ao formulário 1'!$G44))</f>
+        <v>20</v>
+      </c>
+      <c r="Q45" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G44,$P$1,"")</f>
+        <v>Computador (desktop)</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f>LEN(('Respostas ao formulário 1'!$G44))</f>
+        <v>20</v>
+      </c>
+      <c r="V45" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G44,$U$1,"")</f>
+        <v>Computador (desktop)</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f>LEN(('Respostas ao formulário 1'!$G44))</f>
+        <v>20</v>
+      </c>
+      <c r="AA45" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G44,$Z$1,"")</f>
+        <v>Computador (desktop)</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f>LEN(('Respostas ao formulário 1'!$G44))</f>
+        <v>20</v>
+      </c>
+      <c r="AF45" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G44,$AE$1,"")</f>
+        <v>Computador (desktop)</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f>LEN(('Respostas ao formulário 1'!G45))</f>
+        <v>55</v>
+      </c>
+      <c r="B46" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G45,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook,  (desktop), Kindle</v>
+      </c>
+      <c r="C46">
+        <f>LEN(B46)</f>
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <f>A46-C46</f>
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <f>LEN(('Respostas ao formulário 1'!G45))</f>
+        <v>55</v>
+      </c>
+      <c r="G46" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G45,$F$1,"")</f>
+        <v>, Tablet, Notebook, Computador (desktop), Kindle</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <f>LEN(('Respostas ao formulário 1'!$G45))</f>
+        <v>55</v>
+      </c>
+      <c r="L46" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G45,$K$1,"")</f>
+        <v>Celular, , Notebook, Computador (desktop), Kindle</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <f>LEN(('Respostas ao formulário 1'!$G45))</f>
+        <v>55</v>
+      </c>
+      <c r="Q46" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G45,$P$1,"")</f>
+        <v>Celular, Tablet, , Computador (desktop), Kindle</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U46">
+        <f>LEN(('Respostas ao formulário 1'!$G45))</f>
+        <v>55</v>
+      </c>
+      <c r="V46" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G45,$U$1,"")</f>
+        <v xml:space="preserve">Celular, Tablet, Notebook, Computador (desktop), </v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z46">
+        <f>LEN(('Respostas ao formulário 1'!$G45))</f>
+        <v>55</v>
+      </c>
+      <c r="AA46" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G45,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop), Kindle</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f>LEN(('Respostas ao formulário 1'!$G45))</f>
+        <v>55</v>
+      </c>
+      <c r="AF46" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G45,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook, Computador (desktop), Kindle</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f>LEN(('Respostas ao formulário 1'!G46))</f>
+        <v>26</v>
+      </c>
+      <c r="B47" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G46,$A$1,"")</f>
+        <v xml:space="preserve"> (desktop), Kobo</v>
+      </c>
+      <c r="C47">
+        <f>LEN(B47)</f>
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <f>A47-C47</f>
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <f>LEN(('Respostas ao formulário 1'!G46))</f>
+        <v>26</v>
+      </c>
+      <c r="G47" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G46,$F$1,"")</f>
+        <v>Computador (desktop), Kobo</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f>LEN(('Respostas ao formulário 1'!$G46))</f>
+        <v>26</v>
+      </c>
+      <c r="L47" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G46,$K$1,"")</f>
+        <v>Computador (desktop), Kobo</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f>LEN(('Respostas ao formulário 1'!$G46))</f>
+        <v>26</v>
+      </c>
+      <c r="Q47" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G46,$P$1,"")</f>
+        <v>Computador (desktop), Kobo</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f>LEN(('Respostas ao formulário 1'!$G46))</f>
+        <v>26</v>
+      </c>
+      <c r="V47" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G46,$U$1,"")</f>
+        <v>Computador (desktop), Kobo</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f>LEN(('Respostas ao formulário 1'!$G46))</f>
+        <v>26</v>
+      </c>
+      <c r="AA47" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G46,$Z$1,"")</f>
+        <v xml:space="preserve">Computador (desktop), </v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AE47">
+        <f>LEN(('Respostas ao formulário 1'!$G46))</f>
+        <v>26</v>
+      </c>
+      <c r="AF47" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G46,$AE$1,"")</f>
+        <v>Computador (desktop), Kobo</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>LEN(('Respostas ao formulário 1'!G47))</f>
+        <v>7</v>
+      </c>
+      <c r="B48" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G47,$A$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="C48">
+        <f>LEN(B48)</f>
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <f>A48-C48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>LEN(('Respostas ao formulário 1'!G47))</f>
+        <v>7</v>
+      </c>
+      <c r="G48" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G47,$F$1,"")</f>
+        <v/>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <f>LEN(('Respostas ao formulário 1'!$G47))</f>
+        <v>7</v>
+      </c>
+      <c r="L48" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G47,$K$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f>LEN(('Respostas ao formulário 1'!$G47))</f>
+        <v>7</v>
+      </c>
+      <c r="Q48" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G47,$P$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f>LEN(('Respostas ao formulário 1'!$G47))</f>
+        <v>7</v>
+      </c>
+      <c r="V48" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G47,$U$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f>LEN(('Respostas ao formulário 1'!$G47))</f>
+        <v>7</v>
+      </c>
+      <c r="AA48" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G47,$Z$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f>LEN(('Respostas ao formulário 1'!$G47))</f>
+        <v>7</v>
+      </c>
+      <c r="AF48" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G47,$AE$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f>LEN(('Respostas ao formulário 1'!G48))</f>
+        <v>39</v>
+      </c>
+      <c r="B49" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G48,$A$1,"")</f>
+        <v>Celular, Notebook,  (desktop)</v>
+      </c>
+      <c r="C49">
+        <f>LEN(B49)</f>
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <f>A49-C49</f>
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <f>LEN(('Respostas ao formulário 1'!G48))</f>
+        <v>39</v>
+      </c>
+      <c r="G49" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G48,$F$1,"")</f>
+        <v>, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <f>LEN(('Respostas ao formulário 1'!$G48))</f>
+        <v>39</v>
+      </c>
+      <c r="L49" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G48,$K$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>LEN(('Respostas ao formulário 1'!$G48))</f>
+        <v>39</v>
+      </c>
+      <c r="Q49" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G48,$P$1,"")</f>
+        <v>Celular, , Computador (desktop)</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U49">
+        <f>LEN(('Respostas ao formulário 1'!$G48))</f>
+        <v>39</v>
+      </c>
+      <c r="V49" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G48,$U$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f>LEN(('Respostas ao formulário 1'!$G48))</f>
+        <v>39</v>
+      </c>
+      <c r="AA49" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G48,$Z$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <f>LEN(('Respostas ao formulário 1'!$G48))</f>
+        <v>39</v>
+      </c>
+      <c r="AF49" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G48,$AE$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>LEN(('Respostas ao formulário 1'!G49))</f>
+        <v>16</v>
+      </c>
+      <c r="B50" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G49,$A$1,"")</f>
+        <v>Tablet, Notebook</v>
+      </c>
+      <c r="C50">
+        <f>LEN(B50)</f>
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <f>A50-C50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>LEN(('Respostas ao formulário 1'!G49))</f>
+        <v>16</v>
+      </c>
+      <c r="G50" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G49,$F$1,"")</f>
+        <v>Tablet, Notebook</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f>LEN(('Respostas ao formulário 1'!$G49))</f>
+        <v>16</v>
+      </c>
+      <c r="L50" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G49,$K$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <f>LEN(('Respostas ao formulário 1'!$G49))</f>
+        <v>16</v>
+      </c>
+      <c r="Q50" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G49,$P$1,"")</f>
+        <v xml:space="preserve">Tablet, </v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U50">
+        <f>LEN(('Respostas ao formulário 1'!$G49))</f>
+        <v>16</v>
+      </c>
+      <c r="V50" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G49,$U$1,"")</f>
+        <v>Tablet, Notebook</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f>LEN(('Respostas ao formulário 1'!$G49))</f>
+        <v>16</v>
+      </c>
+      <c r="AA50" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G49,$Z$1,"")</f>
+        <v>Tablet, Notebook</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <f>LEN(('Respostas ao formulário 1'!$G49))</f>
+        <v>16</v>
+      </c>
+      <c r="AF50" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G49,$AE$1,"")</f>
+        <v>Tablet, Notebook</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f>LEN(('Respostas ao formulário 1'!G50))</f>
+        <v>7</v>
+      </c>
+      <c r="B51" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G50,$A$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="C51">
+        <f>LEN(B51)</f>
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <f>A51-C51</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>LEN(('Respostas ao formulário 1'!G50))</f>
+        <v>7</v>
+      </c>
+      <c r="G51" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G50,$F$1,"")</f>
+        <v/>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K51">
+        <f>LEN(('Respostas ao formulário 1'!$G50))</f>
+        <v>7</v>
+      </c>
+      <c r="L51" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G50,$K$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f>LEN(('Respostas ao formulário 1'!$G50))</f>
+        <v>7</v>
+      </c>
+      <c r="Q51" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G50,$P$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f>LEN(('Respostas ao formulário 1'!$G50))</f>
+        <v>7</v>
+      </c>
+      <c r="V51" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G50,$U$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <f>LEN(('Respostas ao formulário 1'!$G50))</f>
+        <v>7</v>
+      </c>
+      <c r="AA51" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G50,$Z$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <f>LEN(('Respostas ao formulário 1'!$G50))</f>
+        <v>7</v>
+      </c>
+      <c r="AF51" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G50,$AE$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>LEN(('Respostas ao formulário 1'!G51))</f>
+        <v>17</v>
+      </c>
+      <c r="B52" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G51,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C52">
+        <f>LEN(B52)</f>
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <f>A52-C52</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>LEN(('Respostas ao formulário 1'!G51))</f>
+        <v>17</v>
+      </c>
+      <c r="G52" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G51,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <f>LEN(('Respostas ao formulário 1'!$G51))</f>
+        <v>17</v>
+      </c>
+      <c r="L52" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G51,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f>LEN(('Respostas ao formulário 1'!$G51))</f>
+        <v>17</v>
+      </c>
+      <c r="Q52" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G51,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U52">
+        <f>LEN(('Respostas ao formulário 1'!$G51))</f>
+        <v>17</v>
+      </c>
+      <c r="V52" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G51,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f>LEN(('Respostas ao formulário 1'!$G51))</f>
+        <v>17</v>
+      </c>
+      <c r="AA52" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G51,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <f>LEN(('Respostas ao formulário 1'!$G51))</f>
+        <v>17</v>
+      </c>
+      <c r="AF52" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G51,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>LEN(('Respostas ao formulário 1'!G52))</f>
+        <v>7</v>
+      </c>
+      <c r="B53" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G52,$A$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="C53">
+        <f>LEN(B53)</f>
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <f>A53-C53</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>LEN(('Respostas ao formulário 1'!G52))</f>
+        <v>7</v>
+      </c>
+      <c r="G53" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G52,$F$1,"")</f>
+        <v/>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K53">
+        <f>LEN(('Respostas ao formulário 1'!$G52))</f>
+        <v>7</v>
+      </c>
+      <c r="L53" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G52,$K$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>LEN(('Respostas ao formulário 1'!$G52))</f>
+        <v>7</v>
+      </c>
+      <c r="Q53" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G52,$P$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f>LEN(('Respostas ao formulário 1'!$G52))</f>
+        <v>7</v>
+      </c>
+      <c r="V53" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G52,$U$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f>LEN(('Respostas ao formulário 1'!$G52))</f>
+        <v>7</v>
+      </c>
+      <c r="AA53" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G52,$Z$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f>LEN(('Respostas ao formulário 1'!$G52))</f>
+        <v>7</v>
+      </c>
+      <c r="AF53" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G52,$AE$1,"")</f>
+        <v>Celular</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f>LEN(('Respostas ao formulário 1'!G53))</f>
+        <v>39</v>
+      </c>
+      <c r="B54" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G53,$A$1,"")</f>
+        <v>Celular, Notebook,  (desktop)</v>
+      </c>
+      <c r="C54">
+        <f>LEN(B54)</f>
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <f>A54-C54</f>
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <f>LEN(('Respostas ao formulário 1'!G53))</f>
+        <v>39</v>
+      </c>
+      <c r="G54" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G53,$F$1,"")</f>
+        <v>, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K54">
+        <f>LEN(('Respostas ao formulário 1'!$G53))</f>
+        <v>39</v>
+      </c>
+      <c r="L54" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G53,$K$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>LEN(('Respostas ao formulário 1'!$G53))</f>
+        <v>39</v>
+      </c>
+      <c r="Q54" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G53,$P$1,"")</f>
+        <v>Celular, , Computador (desktop)</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U54">
+        <f>LEN(('Respostas ao formulário 1'!$G53))</f>
+        <v>39</v>
+      </c>
+      <c r="V54" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G53,$U$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f>LEN(('Respostas ao formulário 1'!$G53))</f>
+        <v>39</v>
+      </c>
+      <c r="AA54" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G53,$Z$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <f>LEN(('Respostas ao formulário 1'!$G53))</f>
+        <v>39</v>
+      </c>
+      <c r="AF54" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G53,$AE$1,"")</f>
+        <v>Celular, Notebook, Computador (desktop)</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f>LEN(('Respostas ao formulário 1'!G54))</f>
+        <v>6</v>
+      </c>
+      <c r="B55" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G54,$A$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="C55">
+        <f>LEN(B55)</f>
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <f>A55-C55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>LEN(('Respostas ao formulário 1'!G54))</f>
+        <v>6</v>
+      </c>
+      <c r="G55" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G54,$F$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>LEN(('Respostas ao formulário 1'!$G54))</f>
+        <v>6</v>
+      </c>
+      <c r="L55" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G54,$K$1,"")</f>
+        <v/>
+      </c>
+      <c r="M55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <f>LEN(('Respostas ao formulário 1'!$G54))</f>
+        <v>6</v>
+      </c>
+      <c r="Q55" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G54,$P$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f>LEN(('Respostas ao formulário 1'!$G54))</f>
+        <v>6</v>
+      </c>
+      <c r="V55" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G54,$U$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f>LEN(('Respostas ao formulário 1'!$G54))</f>
+        <v>6</v>
+      </c>
+      <c r="AA55" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G54,$Z$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <f>LEN(('Respostas ao formulário 1'!$G54))</f>
+        <v>6</v>
+      </c>
+      <c r="AF55" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G54,$AE$1,"")</f>
+        <v>Tablet</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f>LEN(('Respostas ao formulário 1'!G55))</f>
+        <v>17</v>
+      </c>
+      <c r="B56" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G55,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C56">
+        <f>LEN(B56)</f>
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <f>A56-C56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>LEN(('Respostas ao formulário 1'!G55))</f>
+        <v>17</v>
+      </c>
+      <c r="G56" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G55,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K56">
+        <f>LEN(('Respostas ao formulário 1'!$G55))</f>
+        <v>17</v>
+      </c>
+      <c r="L56" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G55,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f>LEN(('Respostas ao formulário 1'!$G55))</f>
+        <v>17</v>
+      </c>
+      <c r="Q56" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G55,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U56">
+        <f>LEN(('Respostas ao formulário 1'!$G55))</f>
+        <v>17</v>
+      </c>
+      <c r="V56" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G55,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f>LEN(('Respostas ao formulário 1'!$G55))</f>
+        <v>17</v>
+      </c>
+      <c r="AA56" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G55,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <f>LEN(('Respostas ao formulário 1'!$G55))</f>
+        <v>17</v>
+      </c>
+      <c r="AF56" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G55,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f>LEN(('Respostas ao formulário 1'!G56))</f>
+        <v>33</v>
+      </c>
+      <c r="B57" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G56,$A$1,"")</f>
+        <v>Celular, Tablet, Notebook, Kindle</v>
+      </c>
+      <c r="C57">
+        <f>LEN(B57)</f>
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <f>A57-C57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>LEN(('Respostas ao formulário 1'!G56))</f>
+        <v>33</v>
+      </c>
+      <c r="G57" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G56,$F$1,"")</f>
+        <v>, Tablet, Notebook, Kindle</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K57">
+        <f>LEN(('Respostas ao formulário 1'!$G56))</f>
+        <v>33</v>
+      </c>
+      <c r="L57" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G56,$K$1,"")</f>
+        <v>Celular, , Notebook, Kindle</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P57">
+        <f>LEN(('Respostas ao formulário 1'!$G56))</f>
+        <v>33</v>
+      </c>
+      <c r="Q57" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G56,$P$1,"")</f>
+        <v>Celular, Tablet, , Kindle</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U57">
+        <f>LEN(('Respostas ao formulário 1'!$G56))</f>
+        <v>33</v>
+      </c>
+      <c r="V57" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G56,$U$1,"")</f>
+        <v xml:space="preserve">Celular, Tablet, Notebook, </v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z57">
+        <f>LEN(('Respostas ao formulário 1'!$G56))</f>
+        <v>33</v>
+      </c>
+      <c r="AA57" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G56,$Z$1,"")</f>
+        <v>Celular, Tablet, Notebook, Kindle</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <f>LEN(('Respostas ao formulário 1'!$G56))</f>
+        <v>33</v>
+      </c>
+      <c r="AF57" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G56,$AE$1,"")</f>
+        <v>Celular, Tablet, Notebook, Kindle</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f>LEN(('Respostas ao formulário 1'!G57))</f>
+        <v>17</v>
+      </c>
+      <c r="B58" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G57,$A$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="C58">
+        <f>LEN(B58)</f>
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <f>A58-C58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>LEN(('Respostas ao formulário 1'!G57))</f>
+        <v>17</v>
+      </c>
+      <c r="G58" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G57,$F$1,"")</f>
+        <v>, Notebook</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <f>LEN(('Respostas ao formulário 1'!$G57))</f>
+        <v>17</v>
+      </c>
+      <c r="L58" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G57,$K$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>LEN(('Respostas ao formulário 1'!$G57))</f>
+        <v>17</v>
+      </c>
+      <c r="Q58" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G57,$P$1,"")</f>
+        <v xml:space="preserve">Celular, </v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U58">
+        <f>LEN(('Respostas ao formulário 1'!$G57))</f>
+        <v>17</v>
+      </c>
+      <c r="V58" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G57,$U$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f>LEN(('Respostas ao formulário 1'!$G57))</f>
+        <v>17</v>
+      </c>
+      <c r="AA58" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G57,$Z$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <f>LEN(('Respostas ao formulário 1'!$G57))</f>
+        <v>17</v>
+      </c>
+      <c r="AF58" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G57,$AE$1,"")</f>
+        <v>Celular, Notebook</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f>LEN(('Respostas ao formulário 1'!G58))</f>
+        <v>25</v>
+      </c>
+      <c r="B59" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G58,$A$1,"")</f>
+        <v>Celular, Notebook, Kindle</v>
+      </c>
+      <c r="C59">
+        <f>LEN(B59)</f>
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <f>A59-C59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>LEN(('Respostas ao formulário 1'!G58))</f>
+        <v>25</v>
+      </c>
+      <c r="G59" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G58,$F$1,"")</f>
+        <v>, Notebook, Kindle</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K59">
+        <f>LEN(('Respostas ao formulário 1'!$G58))</f>
+        <v>25</v>
+      </c>
+      <c r="L59" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G58,$K$1,"")</f>
+        <v>Celular, Notebook, Kindle</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f>LEN(('Respostas ao formulário 1'!$G58))</f>
+        <v>25</v>
+      </c>
+      <c r="Q59" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G58,$P$1,"")</f>
+        <v>Celular, , Kindle</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U59">
+        <f>LEN(('Respostas ao formulário 1'!$G58))</f>
+        <v>25</v>
+      </c>
+      <c r="V59" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G58,$U$1,"")</f>
+        <v xml:space="preserve">Celular, Notebook, </v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z59">
+        <f>LEN(('Respostas ao formulário 1'!$G58))</f>
+        <v>25</v>
+      </c>
+      <c r="AA59" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G58,$Z$1,"")</f>
+        <v>Celular, Notebook, Kindle</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <f>LEN(('Respostas ao formulário 1'!$G58))</f>
+        <v>25</v>
+      </c>
+      <c r="AF59" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G58,$AE$1,"")</f>
+        <v>Celular, Notebook, Kindle</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f>LEN(('Respostas ao formulário 1'!G59))</f>
+        <v>26</v>
+      </c>
+      <c r="B60" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G59,$A$1,"")</f>
+        <v>Celular, Notebook, Ereader</v>
+      </c>
+      <c r="C60">
+        <f>LEN(B60)</f>
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <f>A60-C60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>LEN(('Respostas ao formulário 1'!G59))</f>
+        <v>26</v>
+      </c>
+      <c r="G60" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!G59,$F$1,"")</f>
+        <v>, Notebook, Ereader</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K60">
+        <f>LEN(('Respostas ao formulário 1'!$G59))</f>
+        <v>26</v>
+      </c>
+      <c r="L60" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G59,$K$1,"")</f>
+        <v>Celular, Notebook, Ereader</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f>LEN(('Respostas ao formulário 1'!$G59))</f>
+        <v>26</v>
+      </c>
+      <c r="Q60" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G59,$P$1,"")</f>
+        <v>Celular, , Ereader</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U60">
+        <f>LEN(('Respostas ao formulário 1'!$G59))</f>
+        <v>26</v>
+      </c>
+      <c r="V60" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G59,$U$1,"")</f>
+        <v>Celular, Notebook, Ereader</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f>LEN(('Respostas ao formulário 1'!$G59))</f>
+        <v>26</v>
+      </c>
+      <c r="AA60" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G59,$Z$1,"")</f>
+        <v>Celular, Notebook, Ereader</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <f>LEN(('Respostas ao formulário 1'!$G59))</f>
+        <v>26</v>
+      </c>
+      <c r="AF60" t="str">
+        <f>SUBSTITUTE('Respostas ao formulário 1'!$G59,$AE$1,"")</f>
+        <v xml:space="preserve">Celular, Notebook, </v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>